--- a/data/case1/11/Plm2_14.xlsx
+++ b/data/case1/11/Plm2_14.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.5703125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.091495126376429425</v>
+        <v>-0.073442253343571906</v>
       </c>
       <c r="B1" s="0">
-        <v>0.091106492827023544</v>
+        <v>0.07307514654381464</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.045000588888523652</v>
+        <v>0.019461971481760543</v>
       </c>
       <c r="B2" s="0">
-        <v>0.043340713884438387</v>
+        <v>-0.020381025121594121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.069905936545485048</v>
+        <v>0.12331207741571859</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.070419434126609559</v>
+        <v>-0.12399813930302273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.21356740624826998</v>
+        <v>-0.1599878711343905</v>
       </c>
       <c r="B4" s="0">
-        <v>0.21210313122752211</v>
+        <v>0.1590740765228702</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.1487465108910575</v>
+        <v>-0.1530740771689505</v>
       </c>
       <c r="B5" s="0">
-        <v>0.14709634847337938</v>
+        <v>0.151235761255756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.046210352762749096</v>
+        <v>-0.050375725989641573</v>
       </c>
       <c r="B6" s="0">
-        <v>0.046184206699187769</v>
+        <v>0.050344034051343911</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.02618420814400757</v>
+        <v>-0.030344034848619472</v>
       </c>
       <c r="B7" s="0">
-        <v>0.026145171251796384</v>
+        <v>0.030302948722381373</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0061451727005916723</v>
+        <v>-0.010302949522850824</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0061042902748580374</v>
+        <v>0.010287925943976539</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.00010429155959634784</v>
+        <v>-0.004287926618331106</v>
       </c>
       <c r="B9" s="0">
-        <v>5.8533811174044104e-05</v>
+        <v>0.0042753365491838835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0059414649034366107</v>
+        <v>0.0017246627755795885</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0059417473842913182</v>
+        <v>-0.0017235386768632566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.046595088304840715</v>
+        <v>-0.052068997653801574</v>
       </c>
       <c r="B11" s="0">
-        <v>0.046535960199197035</v>
+        <v>0.051981319240770318</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.040535961487765615</v>
+        <v>-0.045981319918660279</v>
       </c>
       <c r="B12" s="0">
-        <v>0.040349412429957709</v>
+        <v>0.045699833946715174</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.03434941373422884</v>
+        <v>-0.039147416764174991</v>
       </c>
       <c r="B13" s="0">
-        <v>0.03430124090930331</v>
+        <v>0.039082372918434416</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.022301242289167078</v>
+        <v>-0.027082373665903603</v>
       </c>
       <c r="B14" s="0">
-        <v>0.022281757066758168</v>
+        <v>0.02705129260190553</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.016281758377981959</v>
+        <v>-0.021051293297036366</v>
       </c>
       <c r="B15" s="0">
-        <v>0.016268648342732561</v>
+        <v>0.02102686209269411</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015026591757387742</v>
+        <v>-0.015026862790195494</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015003808630599469</v>
+        <v>0.015004038672361997</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.009003809948494812</v>
+        <v>-0.0090040393729973189</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999986458444425</v>
+        <v>0.0089999992711806698</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036105905204507849</v>
+        <v>-0.082537118705271695</v>
       </c>
       <c r="B18" s="0">
-        <v>0.03609586845239221</v>
+        <v>0.082423381718026434</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027095869707166376</v>
+        <v>-0.073423382390446879</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027012927920781138</v>
+        <v>0.072515347731494373</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018012929184946458</v>
+        <v>-0.063515348422413354</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004178256070702</v>
+        <v>0.063314675342342142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090041795213853248</v>
+        <v>-0.0090043316632169024</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999987340965149</v>
+        <v>0.0089999993045828397</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.10424665169069591</v>
+        <v>-0.093931052963997175</v>
       </c>
       <c r="B22" s="0">
-        <v>0.10370525623255666</v>
+        <v>0.093623905518684936</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.094705257503675533</v>
+        <v>-0.084623906194554621</v>
       </c>
       <c r="B23" s="0">
-        <v>0.093775711144726159</v>
+        <v>0.084124576332635037</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126077904329762</v>
+        <v>-0.042124577321438927</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998308727804</v>
+        <v>0.041999999005809308</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094885996987258636</v>
+        <v>-0.094860035933940878</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094648789098041419</v>
+        <v>0.094623471569565965</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088648790377959585</v>
+        <v>-0.088623472240065837</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088340034611587015</v>
+        <v>0.08831676144179923</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082340035896111274</v>
+        <v>-0.082316762115842046</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081272674541597922</v>
+        <v>0.081260735408577478</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075272675851715931</v>
+        <v>-0.075260736096843139</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074533434659310061</v>
+        <v>0.07452918599868763</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062533436056215308</v>
+        <v>-0.062529186752588117</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062168252449053441</v>
+        <v>0.062167274567361375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042168253948299483</v>
+        <v>-0.04216727539947307</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042018198172338206</v>
+        <v>0.042018668070719301</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018199623519479</v>
+        <v>-0.027018668864368323</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000381195309231</v>
+        <v>0.027000553400997163</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060003827193746417</v>
+        <v>-0.0060005542507601817</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999986538574746</v>
+        <v>0.0059999992871206942</v>
       </c>
     </row>
   </sheetData>
